--- a/hw/horu.xlsx
+++ b/hw/horu.xlsx
@@ -1003,22 +1003,20 @@
   </sheetPr>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="6" topLeftCell="J7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="2"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="0" width="9.14"/>
@@ -1033,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,11 +1040,11 @@
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">SUM(I7:I24)</f>
-        <v>47.72</v>
+        <v>35.79</v>
       </c>
       <c r="M2" s="3" t="n">
         <f aca="false">SUM(M7:M24)</f>
-        <v>50.148</v>
+        <v>38.827</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,7 +1139,7 @@
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">BoardQty*1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1149,10 +1147,13 @@
       </c>
       <c r="I7" s="8" t="n">
         <f aca="false">IFERROR(G7*H7,"")</f>
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>3870</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="L7" s="8" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K7="",G7,K7),{0,1,10,50,100,500,1000,2000,5000,10000},{0,0.65,0.552,0.496,0.441,0.42,0.336,0.315,0.304,0.294}),"")</f>
@@ -1160,7 +1161,7 @@
       </c>
       <c r="M7" s="8" t="n">
         <f aca="false">IFERROR(IF(K7="",G7,K7)*L7,"")</f>
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>22</v>
@@ -1184,7 +1185,7 @@
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">BoardQty*2</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1192,7 +1193,7 @@
       </c>
       <c r="I8" s="8" t="n">
         <f aca="false">IFERROR(G8*H8,"")</f>
-        <v>0.176</v>
+        <v>0.132</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>180907</v>
@@ -1230,7 +1231,7 @@
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">BoardQty*1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1238,10 +1239,13 @@
       </c>
       <c r="I9" s="8" t="n">
         <f aca="false">IFERROR(G9*H9,"")</f>
-        <v>25.88</v>
+        <v>19.41</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>573</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="L9" s="8" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K9="",G9,K9),{0,1,10,25,100},{0,6.47,6.14,5.78,4.34}),"")</f>
@@ -1249,7 +1253,7 @@
       </c>
       <c r="M9" s="8" t="n">
         <f aca="false">IFERROR(IF(K9="",G9,K9)*L9,"")</f>
-        <v>25.88</v>
+        <v>19.41</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>33</v>
@@ -1273,7 +1277,7 @@
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">BoardQty*1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1281,7 +1285,7 @@
       </c>
       <c r="I10" s="8" t="n">
         <f aca="false">IFERROR(G10*H10,"")</f>
-        <v>0.208</v>
+        <v>0.156</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>288205</v>
@@ -1319,7 +1323,7 @@
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">BoardQty*1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1327,7 +1331,7 @@
       </c>
       <c r="I11" s="8" t="n">
         <f aca="false">IFERROR(G11*H11,"")</f>
-        <v>0.048</v>
+        <v>0.036</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>1071823</v>
@@ -1365,7 +1369,7 @@
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">BoardQty*3</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H12" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1373,10 +1377,13 @@
       </c>
       <c r="I12" s="8" t="n">
         <f aca="false">IFERROR(G12*H12,"")</f>
-        <v>0.252</v>
+        <v>0.189</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>259679</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="L12" s="8" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K12="",G12,K12),{0,1,10,100,500,1000,4000,8000,24000,48000},{0,0.11,0.021,0.014,0.012,0.01,0.008,0.007,0.006,0.005}),"")</f>
@@ -1384,7 +1391,7 @@
       </c>
       <c r="M12" s="8" t="n">
         <f aca="false">IFERROR(IF(K12="",G12,K12)*L12,"")</f>
-        <v>0.252</v>
+        <v>0.21</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>46</v>
@@ -1408,7 +1415,7 @@
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">BoardQty*1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1416,10 +1423,13 @@
       </c>
       <c r="I13" s="8" t="n">
         <f aca="false">IFERROR(G13*H13,"")</f>
-        <v>3.196</v>
+        <v>2.397</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>12614</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="L13" s="8" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K13="",G13,K13),{0,1,10,100,250,600,1200,2400},{0,0.799,0.703,0.605,0.5,0.476,0.451,0.379}),"")</f>
@@ -1427,7 +1437,7 @@
       </c>
       <c r="M13" s="8" t="n">
         <f aca="false">IFERROR(IF(K13="",G13,K13)*L13,"")</f>
-        <v>3.196</v>
+        <v>2.397</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>51</v>
@@ -1451,7 +1461,7 @@
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">BoardQty*4</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H14" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1459,10 +1469,13 @@
       </c>
       <c r="I14" s="8" t="n">
         <f aca="false">IFERROR(G14*H14,"")</f>
-        <v>3.488</v>
+        <v>2.616</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>32953</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="L14" s="8" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K14="",G14,K14),{0,1,10,100,250,500,1000,2000,4000,8000},{0,0.359,0.218,0.144,0.102,0.087,0.068,0.054,0.049,0.047}),"")</f>
@@ -1470,7 +1483,7 @@
       </c>
       <c r="M14" s="8" t="n">
         <f aca="false">IFERROR(IF(K14="",G14,K14)*L14,"")</f>
-        <v>3.488</v>
+        <v>2.616</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>56</v>
@@ -1494,7 +1507,7 @@
       </c>
       <c r="G15" s="0" t="n">
         <f aca="false">BoardQty*4</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H15" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1502,10 +1515,13 @@
       </c>
       <c r="I15" s="8" t="n">
         <f aca="false">IFERROR(G15*H15,"")</f>
-        <v>0.192</v>
+        <v>0.144</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>118877</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="L15" s="8" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K15="",G15,K15),{0,1,10,100,500,1000,5000},{0,0.1,0.012,0.008,0.006,0.003,0.002}),"")</f>
@@ -1513,7 +1529,7 @@
       </c>
       <c r="M15" s="8" t="n">
         <f aca="false">IFERROR(IF(K15="",G15,K15)*L15,"")</f>
-        <v>0.192</v>
+        <v>0.144</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>60</v>
@@ -1522,7 +1538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>61</v>
       </c>
@@ -1534,7 +1550,7 @@
       </c>
       <c r="G16" s="0" t="n">
         <f aca="false">BoardQty*4</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H16" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1560,7 +1576,7 @@
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">BoardQty*2</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H17" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1568,7 +1584,7 @@
       </c>
       <c r="I17" s="8" t="n">
         <f aca="false">IFERROR(G17*H17,"")</f>
-        <v>0.104</v>
+        <v>0.078</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>167981</v>
@@ -1606,7 +1622,7 @@
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">BoardQty*1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1614,10 +1630,13 @@
       </c>
       <c r="I18" s="8" t="n">
         <f aca="false">IFERROR(G18*H18,"")</f>
-        <v>7.92</v>
+        <v>5.94</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>935</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="L18" s="8" t="n">
         <f aca="false">IFERROR(LOOKUP(IF(K18="",G18,K18),{0,1,10,100,250,500,1000,2000,5000},{0,1.98,1.74,1.58,1.38,1.34,1.14,1.07,1.03}),"")</f>
@@ -1625,7 +1644,7 @@
       </c>
       <c r="M18" s="8" t="n">
         <f aca="false">IFERROR(IF(K18="",G18,K18)*L18,"")</f>
-        <v>7.92</v>
+        <v>5.94</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>72</v>
@@ -1649,7 +1668,7 @@
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">BoardQty*2</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1657,7 +1676,7 @@
       </c>
       <c r="I19" s="8" t="n">
         <f aca="false">IFERROR(G19*H19,"")</f>
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>75638</v>
@@ -1680,7 +1699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>77</v>
       </c>
@@ -1692,7 +1711,7 @@
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">BoardQty*1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1718,7 +1737,7 @@
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">BoardQty*2</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H21" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1726,7 +1745,7 @@
       </c>
       <c r="I21" s="8" t="n">
         <f aca="false">IFERROR(G21*H21,"")</f>
-        <v>1.84</v>
+        <v>1.38</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>7837</v>
@@ -1737,7 +1756,7 @@
       </c>
       <c r="M21" s="8" t="n">
         <f aca="false">IFERROR(IF(K21="",G21,K21)*L21,"")</f>
-        <v>1.84</v>
+        <v>1.38</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>84</v>
@@ -1761,7 +1780,7 @@
       </c>
       <c r="G22" s="0" t="n">
         <f aca="false">BoardQty*1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1769,7 +1788,7 @@
       </c>
       <c r="I22" s="8" t="n">
         <f aca="false">IFERROR(G22*H22,"")</f>
-        <v>0.048</v>
+        <v>0.036</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>741819</v>
@@ -1792,7 +1811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>89</v>
       </c>
@@ -1804,7 +1823,7 @@
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">BoardQty*1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1830,7 +1849,7 @@
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">BoardQty*1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="8" t="n">
         <f aca="true">MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
@@ -1838,7 +1857,7 @@
       </c>
       <c r="I24" s="8" t="n">
         <f aca="false">IFERROR(G24*H24,"")</f>
-        <v>1.168</v>
+        <v>0.876</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>8761</v>
@@ -1864,21 +1883,21 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K26" s="0" t="str">
         <f aca="false" t="array" ref="K26:K26">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v>81-GRM39C220J50 </v>
+        <v>815-ABM3B-8.0-B2-T </v>
       </c>
       <c r="L26" s="0" t="str">
         <f aca="false" t="array" ref="L26:L26">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
-        <v>10 </v>
+        <v>3 </v>
       </c>
       <c r="M26" s="0" t="str">
         <f aca="false" t="array" ref="M26:M26">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v>C2,C3</v>
+        <v>Y1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K27" s="0" t="str">
         <f aca="false" t="array" ref="K27:K27">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v>81-GRM188R61C225KE15 </v>
+        <v>81-GRM39C220J50 </v>
       </c>
       <c r="L27" s="0" t="str">
         <f aca="false" t="array" ref="L27:L27">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
@@ -1886,27 +1905,27 @@
       </c>
       <c r="M27" s="0" t="str">
         <f aca="false" t="array" ref="M27:M27">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v>C6</v>
+        <v>C2,C3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K28" s="0" t="str">
         <f aca="false" t="array" ref="K28:K28">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v>667-ERJ-3GEY0R00V </v>
+        <v>841-MKL25Z128VLK4 </v>
       </c>
       <c r="L28" s="0" t="str">
         <f aca="false" t="array" ref="L28:L28">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
-        <v>10 </v>
+        <v>3 </v>
       </c>
       <c r="M28" s="0" t="str">
         <f aca="false" t="array" ref="M28:M28">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v>R7</v>
+        <v>U1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K29" s="0" t="str">
         <f aca="false" t="array" ref="K29:K29">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v>667-ERJ-3GEYJ330V </v>
+        <v>81-GRM188R61C225KE15 </v>
       </c>
       <c r="L29" s="0" t="str">
         <f aca="false" t="array" ref="L29:L29">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
@@ -1914,13 +1933,13 @@
       </c>
       <c r="M29" s="0" t="str">
         <f aca="false" t="array" ref="M29:M29">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v>R5,R6</v>
+        <v>C6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K30" s="0" t="str">
         <f aca="false" t="array" ref="K30:K30">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v>81-BLM18SG331TN1D </v>
+        <v>667-ERJ-3GEY0R00V </v>
       </c>
       <c r="L30" s="0" t="str">
         <f aca="false" t="array" ref="L30:L30">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
@@ -1928,13 +1947,13 @@
       </c>
       <c r="M30" s="0" t="str">
         <f aca="false" t="array" ref="M30:M30">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v>L1,L2</v>
+        <v>R7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K31" s="0" t="str">
         <f aca="false" t="array" ref="K31:K31">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v>667-ERJ-3GEYJ103V </v>
+        <v>81-GRM39R105K16 </v>
       </c>
       <c r="L31" s="0" t="str">
         <f aca="false" t="array" ref="L31:L31">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
@@ -1942,119 +1961,119 @@
       </c>
       <c r="M31" s="0" t="str">
         <f aca="false" t="array" ref="M31:M31">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v>R8</v>
+        <v>C1,C4,C5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K32" s="0" t="str">
         <f aca="false" t="array" ref="K32:K32">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v>78-GSOT05C-G3-08 </v>
+        <v>649-202112100010C4LF </v>
       </c>
       <c r="L32" s="0" t="str">
         <f aca="false" t="array" ref="L32:L32">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
-        <v>10 </v>
+        <v>3 </v>
       </c>
       <c r="M32" s="0" t="str">
         <f aca="false" t="array" ref="M32:M32">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v>D5</v>
+        <v>P5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K33" s="0" t="str">
         <f aca="false" t="array" ref="K33:K33">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v/>
+        <v>720-LGQ396A3964 </v>
       </c>
       <c r="L33" s="0" t="str">
         <f aca="false" t="array" ref="L33:L33">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
-        <v/>
+        <v>12 </v>
       </c>
       <c r="M33" s="0" t="str">
         <f aca="false" t="array" ref="M33:M33">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v/>
+        <v>D1-D4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K34" s="0" t="str">
         <f aca="false" t="array" ref="K34:K34">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v/>
+        <v>667-ERJ-3GEYJ221V </v>
       </c>
       <c r="L34" s="0" t="str">
         <f aca="false" t="array" ref="L34:L34">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
-        <v/>
+        <v>12 </v>
       </c>
       <c r="M34" s="0" t="str">
         <f aca="false" t="array" ref="M34:M34">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v/>
+        <v>R1-R4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K35" s="0" t="str">
         <f aca="false" t="array" ref="K35:K35">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v/>
+        <v>667-ERJ-3GEYJ330V </v>
       </c>
       <c r="L35" s="0" t="str">
         <f aca="false" t="array" ref="L35:L35">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
-        <v/>
+        <v>10 </v>
       </c>
       <c r="M35" s="0" t="str">
         <f aca="false" t="array" ref="M35:M35">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v/>
+        <v>R5,R6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K36" s="0" t="str">
         <f aca="false" t="array" ref="K36:K36">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v/>
+        <v>538-52271-3079 </v>
       </c>
       <c r="L36" s="0" t="str">
         <f aca="false" t="array" ref="L36:L36">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
-        <v/>
+        <v>3 </v>
       </c>
       <c r="M36" s="0" t="str">
         <f aca="false" t="array" ref="M36:M36">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v/>
+        <v>P3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K37" s="0" t="str">
         <f aca="false" t="array" ref="K37:K37">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v/>
+        <v>81-BLM18SG331TN1D </v>
       </c>
       <c r="L37" s="0" t="str">
         <f aca="false" t="array" ref="L37:L37">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
-        <v/>
+        <v>10 </v>
       </c>
       <c r="M37" s="0" t="str">
         <f aca="false" t="array" ref="M37:M37">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v/>
+        <v>L1,L2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K38" s="0" t="str">
         <f aca="false" t="array" ref="K38:K38">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v/>
+        <v>667-ERJ-3GEYJ103V </v>
       </c>
       <c r="L38" s="0" t="str">
         <f aca="false" t="array" ref="L38:L38">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
-        <v/>
+        <v>10 </v>
       </c>
       <c r="M38" s="0" t="str">
         <f aca="false" t="array" ref="M38:M38">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v/>
+        <v>R8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K39" s="0" t="str">
         <f aca="false" t="array" ref="K39:K39">IFERROR(CONCATENATE((INDEX($N$7:$N$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)))," "),"")</f>
-        <v/>
+        <v>78-GSOT05C-G3-08 </v>
       </c>
       <c r="L39" s="0" t="str">
         <f aca="false" t="array" ref="L39:L39">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1)),"##0")," "),"")</f>
-        <v/>
+        <v>10 </v>
       </c>
       <c r="M39" s="0" t="str">
         <f aca="false" t="array" ref="M39:M39">IFERROR(CONCATENATE((INDEX($A$7:$A$24,SMALL(IF($N$7:$N$24&lt;&gt;"",IF($K$7:$K$24&lt;&gt;"",ROW($K$7:$K$24)-MIN(ROW($K$7:$K$24))+1,""),""),ROW()-ROW(A$26)+1))),),"")</f>
-        <v/>
+        <v>D5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
